--- a/medicine/Enfance/Claude_Gutman/Claude_Gutman.xlsx
+++ b/medicine/Enfance/Claude_Gutman/Claude_Gutman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Gutman né le 27 décembre 1946 en Palestine mandataire est un écrivain français.
 Il vit à Paris.
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Gutman est né le 27 décembre 1946 à Petach-Ticqwa en Palestine mandataire . Lorsqu'il a 6 ans, ses parents divorcent, ce qui le conduit en France avec son père, à Montreuil-sous-Bois, où il a vécu une quinzaine d'années[1]. Sa mère demeurera au kibboutz Sdot-Yam (Césarée) qu'il évoquera dans ses ouvrages.
-Son premier texte publié est une critique de Courir les rues, de Raymond Queneau, dans La Quinzaine littéraire, alors qu'il passait son baccalauréat[2]. Il travaille pour ce magazine pendant un an tout en continuant ses études de lettres. Il publie son premier roman, Dans le mitan du lit, en 1974. Il écrit son premier texte pour enfants en 1980, Toufdepoil, pour ses deux aînés.
-Professeur de lettres pendant vingt ans en banlieue parisienne[2], il quitte l'enseignement en 1988 pour se consacrer à son écriture et à celle des autres. Il crée aux Éditions Syros la collection « Croche-Patte », puis dirige la collection « Page Blanche » (Gallimard Jeunesse) à partir de 1989. En 2000, il quitte Gallimard pour les Éditions du Seuil où il fonde la collection « Fictions-Jeunesse » et dirige dans la collection Points les romans policiers.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Gutman est né le 27 décembre 1946 à Petach-Ticqwa en Palestine mandataire . Lorsqu'il a 6 ans, ses parents divorcent, ce qui le conduit en France avec son père, à Montreuil-sous-Bois, où il a vécu une quinzaine d'années. Sa mère demeurera au kibboutz Sdot-Yam (Césarée) qu'il évoquera dans ses ouvrages.
+Son premier texte publié est une critique de Courir les rues, de Raymond Queneau, dans La Quinzaine littéraire, alors qu'il passait son baccalauréat. Il travaille pour ce magazine pendant un an tout en continuant ses études de lettres. Il publie son premier roman, Dans le mitan du lit, en 1974. Il écrit son premier texte pour enfants en 1980, Toufdepoil, pour ses deux aînés.
+Professeur de lettres pendant vingt ans en banlieue parisienne, il quitte l'enseignement en 1988 pour se consacrer à son écriture et à celle des autres. Il crée aux Éditions Syros la collection « Croche-Patte », puis dirige la collection « Page Blanche » (Gallimard Jeunesse) à partir de 1989. En 2000, il quitte Gallimard pour les Éditions du Seuil où il fonde la collection « Fictions-Jeunesse » et dirige dans la collection Points les romans policiers.
 Aujourd'hui, il dirige « Les Universels » (Folio-Junior Gallimard), abandonnant pour un temps les œuvres de fiction pour les textes fondamentaux. Ses centres d'intérêt le conduisent à écrire pour les tout petits, les adolescents et les adultes. Il ne craint pas de secouer les codes établis de la littérature de jeunesse tant comme éditeur que comme auteur. Son impertinence est toujours teintée d'humour. Il est à ce jour, l'auteur d'une quarantaine d'ouvrages. Un cycle autobiographique se poursuit depuis Dans le Mitan du lit (Éditions des Femmes), suivi des Réparations, des Larmes du Crocodile (Mercure de France). Aux Éditions du Seuil, il poursuit ce cheminement avec Sincères Ressentiments, L'enfant qui m'accompagne et Un aller-retour et Le cosaque de la rue Garibaldi (Gallimard).
 Par ailleurs, il est l'auteur d'une vingtaine de scénarios.
 </t>
@@ -547,12 +561,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans le Mitan du lit, en collaboration avec Evelyne Gutman, Éditions des Femmes, 1974
 Les Réparations, (Mercure de France) 1981 ; Le Seuil, coll. « Fictions », 1999
 Les Larmes du Crocodile, Mercure de France, 1982
-Toufdepoil,, illustré par Pef, (Bordas), coll. « Aux quatre coins du temps », 1983 ; Pocket Jeunesse, 1995
+Toufdepoil illustré par Pef, (Bordas), coll. « Aux quatre coins du temps », 1983 ; Pocket Jeunesse, 1995
 Pistolet-souvenir, illustré par Pef (Bordas), coll. « Aux quatre coins du temps », 1984 ; Pocket Jeunesse, 1995 et 2002
 Danger : gros mots , illustré par Pef, (Syros), 1986 ; Gallimard, coll. « Folio cadet », 1995, 1998, 2004
 La Folle cavale de Toufdepoil, illustré par Pef, Bordas, coll. « Aux quatre coins du temps », 1986 ; Pocket Jeunesse, coll. « Pocket Junior », 1998
@@ -583,7 +599,7 @@
 Pardaillan, Folies d'encre, 2012
 Les Extraordinaires aventures de tous les jours, illustré par Ronan Badel, Flammarion- Père Castor, coll. « Castor poche », 2015
 La Loi du retour, Gallimard, coll. « Folio », 2015. Regroupe : La Maison vide, L'Hôtel du retour, Rue de Paris
-Un Aller-retour, Gallimard, coll. « Folio », 2016[3],[4]
+Un Aller-retour, Gallimard, coll. « Folio », 2016,
 Le Cosaque de la rue Garibaldi, Gallimard, coll. « Blanche », 2016
 Les nouvelles aventures extraordinaires de tous les jours, illustré par Ronan Badel, Flammarion-Père Castor, coll.« Castor poche », 2017
 La fuite sans fin de Joseph Meyer, Gallimard Jeunesse, 2022</t>
@@ -614,13 +630,15 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1983 : prix Bernard Versele, la ligue des familles pour Toufdepoil, illustré par Pef, Lauréat IBBY france
-1986 : (international) « Honour List »[5] de l'IBBY, catégorie Auteur, pour Toufdepoil (illustré par Pef)
+1986 : (international) « Honour List » de l'IBBY, catégorie Auteur, pour Toufdepoil (illustré par Pef)
 1988 : prix du roman de la Société des gens de Lettres pour la Folle rumeur de Smyrne. (sélection prix Renaudot)
-1989 : Prix historique de la ville de Poitiers pour La Maison vide[6]
-1990 : (international) « Honour List »[5] de l'IBBY pour La Maison vide
+1989 : Prix historique de la ville de Poitiers pour La Maison vide
+1990 : (international) « Honour List » de l'IBBY pour La Maison vide
 1989 : prix du roman historique de la ville de Poitiers pour La Maison vide
 1990 : prix Sorcières (Association des librairies spécialisées jeunesse) pour La Maison vide
 1990 : prix IBBY pour La Maison vide
